--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,93 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Belgium First Division B</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht II</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
+  </si>
+  <si>
+    <t>Club Brugge II</t>
+  </si>
+  <si>
+    <t>Patro Eisden</t>
+  </si>
+  <si>
+    <t>RFC Liege</t>
+  </si>
+  <si>
+    <t>KRC Genk II</t>
+  </si>
+  <si>
+    <t>KV Oostende</t>
+  </si>
+  <si>
+    <t>Beerschot-Wilrijk</t>
+  </si>
+  <si>
+    <t>Standard Liège II</t>
+  </si>
+  <si>
+    <t>Lierse Kempenzonen</t>
+  </si>
+  <si>
+    <t>KMSK Deinze</t>
+  </si>
+  <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>Lommel United</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['32', '65', '80']</t>
+  </si>
+  <si>
+    <t>['23', '62', '80']</t>
+  </si>
+  <si>
+    <t>['24', '88', '90']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['66', '82', '90+6']</t>
+  </si>
+  <si>
+    <t>['70', '90']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +342,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +839,1343 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6617756</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45149.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>3.5</v>
+      </c>
+      <c r="U2">
+        <v>2.3</v>
+      </c>
+      <c r="V2">
+        <v>2.55</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>3.2</v>
+      </c>
+      <c r="Y2">
+        <v>2.35</v>
+      </c>
+      <c r="Z2">
+        <v>1.52</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>1.13</v>
+      </c>
+      <c r="AC2">
+        <v>3.1</v>
+      </c>
+      <c r="AD2">
+        <v>3.4</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>1.03</v>
+      </c>
+      <c r="AG2">
+        <v>16.25</v>
+      </c>
+      <c r="AH2">
+        <v>1.19</v>
+      </c>
+      <c r="AI2">
+        <v>4.57</v>
+      </c>
+      <c r="AJ2">
+        <v>1.57</v>
+      </c>
+      <c r="AK2">
+        <v>2.25</v>
+      </c>
+      <c r="AL2">
+        <v>1.52</v>
+      </c>
+      <c r="AM2">
+        <v>2.35</v>
+      </c>
+      <c r="AN2">
+        <v>1.68</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.32</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>2.2</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
+        <v>2</v>
+      </c>
+      <c r="BA2">
+        <v>1.21</v>
+      </c>
+      <c r="BB2">
+        <v>1.48</v>
+      </c>
+      <c r="BC2">
+        <v>1.78</v>
+      </c>
+      <c r="BD2">
+        <v>2.22</v>
+      </c>
+      <c r="BE2">
+        <v>2.88</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>6</v>
+      </c>
+      <c r="BH2">
+        <v>6</v>
+      </c>
+      <c r="BI2">
+        <v>2</v>
+      </c>
+      <c r="BJ2">
+        <v>10</v>
+      </c>
+      <c r="BK2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6617757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45149.625</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>2.38</v>
+      </c>
+      <c r="V3">
+        <v>4.75</v>
+      </c>
+      <c r="W3">
+        <v>1.32</v>
+      </c>
+      <c r="X3">
+        <v>3.22</v>
+      </c>
+      <c r="Y3">
+        <v>2.52</v>
+      </c>
+      <c r="Z3">
+        <v>1.49</v>
+      </c>
+      <c r="AA3">
+        <v>5.95</v>
+      </c>
+      <c r="AB3">
+        <v>1.11</v>
+      </c>
+      <c r="AC3">
+        <v>1.6</v>
+      </c>
+      <c r="AD3">
+        <v>4.2</v>
+      </c>
+      <c r="AE3">
+        <v>4.75</v>
+      </c>
+      <c r="AF3">
+        <v>1.03</v>
+      </c>
+      <c r="AG3">
+        <v>15.5</v>
+      </c>
+      <c r="AH3">
+        <v>1.2</v>
+      </c>
+      <c r="AI3">
+        <v>4.2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.7</v>
+      </c>
+      <c r="AK3">
+        <v>2.1</v>
+      </c>
+      <c r="AL3">
+        <v>1.69</v>
+      </c>
+      <c r="AM3">
+        <v>2.11</v>
+      </c>
+      <c r="AN3">
+        <v>1.17</v>
+      </c>
+      <c r="AO3">
+        <v>1.22</v>
+      </c>
+      <c r="AP3">
+        <v>2.11</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.45</v>
+      </c>
+      <c r="AY3">
+        <v>7</v>
+      </c>
+      <c r="AZ3">
+        <v>3.5</v>
+      </c>
+      <c r="BA3">
+        <v>1.14</v>
+      </c>
+      <c r="BB3">
+        <v>1.3</v>
+      </c>
+      <c r="BC3">
+        <v>1.57</v>
+      </c>
+      <c r="BD3">
+        <v>1.85</v>
+      </c>
+      <c r="BE3">
+        <v>2.4</v>
+      </c>
+      <c r="BF3">
+        <v>6</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>11</v>
+      </c>
+      <c r="BK3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6617758</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2.35</v>
+      </c>
+      <c r="V4">
+        <v>2.55</v>
+      </c>
+      <c r="W4">
+        <v>1.28</v>
+      </c>
+      <c r="X4">
+        <v>3.48</v>
+      </c>
+      <c r="Y4">
+        <v>2.32</v>
+      </c>
+      <c r="Z4">
+        <v>1.57</v>
+      </c>
+      <c r="AA4">
+        <v>5.25</v>
+      </c>
+      <c r="AB4">
+        <v>1.14</v>
+      </c>
+      <c r="AC4">
+        <v>2.95</v>
+      </c>
+      <c r="AD4">
+        <v>3.2</v>
+      </c>
+      <c r="AE4">
+        <v>2.13</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>17.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.17</v>
+      </c>
+      <c r="AI4">
+        <v>4.85</v>
+      </c>
+      <c r="AJ4">
+        <v>1.55</v>
+      </c>
+      <c r="AK4">
+        <v>2.3</v>
+      </c>
+      <c r="AL4">
+        <v>1.5</v>
+      </c>
+      <c r="AM4">
+        <v>2.41</v>
+      </c>
+      <c r="AN4">
+        <v>1.65</v>
+      </c>
+      <c r="AO4">
+        <v>1.3</v>
+      </c>
+      <c r="AP4">
+        <v>1.35</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.6</v>
+      </c>
+      <c r="AY4">
+        <v>6.25</v>
+      </c>
+      <c r="AZ4">
+        <v>1.58</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1.3</v>
+      </c>
+      <c r="BD4">
+        <v>1.72</v>
+      </c>
+      <c r="BE4">
+        <v>1.9</v>
+      </c>
+      <c r="BF4">
+        <v>12</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>7</v>
+      </c>
+      <c r="BJ4">
+        <v>14</v>
+      </c>
+      <c r="BK4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6617759</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45150.625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>2.3</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.32</v>
+      </c>
+      <c r="X5">
+        <v>3.22</v>
+      </c>
+      <c r="Y5">
+        <v>2.4</v>
+      </c>
+      <c r="Z5">
+        <v>1.53</v>
+      </c>
+      <c r="AA5">
+        <v>5.6</v>
+      </c>
+      <c r="AB5">
+        <v>1.12</v>
+      </c>
+      <c r="AC5">
+        <v>2.37</v>
+      </c>
+      <c r="AD5">
+        <v>3.1</v>
+      </c>
+      <c r="AE5">
+        <v>2.66</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>9</v>
+      </c>
+      <c r="AH5">
+        <v>1.2</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.62</v>
+      </c>
+      <c r="AK5">
+        <v>2.15</v>
+      </c>
+      <c r="AL5">
+        <v>1.52</v>
+      </c>
+      <c r="AM5">
+        <v>2.46</v>
+      </c>
+      <c r="AN5">
+        <v>1.4</v>
+      </c>
+      <c r="AO5">
+        <v>1.27</v>
+      </c>
+      <c r="AP5">
+        <v>1.56</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.95</v>
+      </c>
+      <c r="AY5">
+        <v>5.5</v>
+      </c>
+      <c r="AZ5">
+        <v>2.2</v>
+      </c>
+      <c r="BA5">
+        <v>1.5</v>
+      </c>
+      <c r="BB5">
+        <v>2</v>
+      </c>
+      <c r="BC5">
+        <v>2.6</v>
+      </c>
+      <c r="BD5">
+        <v>3.65</v>
+      </c>
+      <c r="BE5">
+        <v>5.3</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
+        <v>3</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>8</v>
+      </c>
+      <c r="BJ5">
+        <v>4</v>
+      </c>
+      <c r="BK5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6617760</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45150.625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>2.88</v>
+      </c>
+      <c r="U6">
+        <v>2.25</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.14</v>
+      </c>
+      <c r="Y6">
+        <v>2.49</v>
+      </c>
+      <c r="Z6">
+        <v>1.5</v>
+      </c>
+      <c r="AA6">
+        <v>5.95</v>
+      </c>
+      <c r="AB6">
+        <v>1.11</v>
+      </c>
+      <c r="AC6">
+        <v>2.28</v>
+      </c>
+      <c r="AD6">
+        <v>3.55</v>
+      </c>
+      <c r="AE6">
+        <v>2.85</v>
+      </c>
+      <c r="AF6">
+        <v>1.04</v>
+      </c>
+      <c r="AG6">
+        <v>14</v>
+      </c>
+      <c r="AH6">
+        <v>1.22</v>
+      </c>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6">
+        <v>1.64</v>
+      </c>
+      <c r="AK6">
+        <v>1.92</v>
+      </c>
+      <c r="AL6">
+        <v>1.57</v>
+      </c>
+      <c r="AM6">
+        <v>2.34</v>
+      </c>
+      <c r="AN6">
+        <v>1.35</v>
+      </c>
+      <c r="AO6">
+        <v>1.28</v>
+      </c>
+      <c r="AP6">
+        <v>1.62</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.66</v>
+      </c>
+      <c r="AY6">
+        <v>9</v>
+      </c>
+      <c r="AZ6">
+        <v>2.55</v>
+      </c>
+      <c r="BA6">
+        <v>1.27</v>
+      </c>
+      <c r="BB6">
+        <v>1.5</v>
+      </c>
+      <c r="BC6">
+        <v>1.87</v>
+      </c>
+      <c r="BD6">
+        <v>2.45</v>
+      </c>
+      <c r="BE6">
+        <v>3.4</v>
+      </c>
+      <c r="BF6">
+        <v>3</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>6</v>
+      </c>
+      <c r="BJ6">
+        <v>3</v>
+      </c>
+      <c r="BK6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6617761</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45151.35416666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>4.6</v>
+      </c>
+      <c r="U7">
+        <v>2.64</v>
+      </c>
+      <c r="V7">
+        <v>2.14</v>
+      </c>
+      <c r="W7">
+        <v>1.24</v>
+      </c>
+      <c r="X7">
+        <v>3.82</v>
+      </c>
+      <c r="Y7">
+        <v>2.17</v>
+      </c>
+      <c r="Z7">
+        <v>1.68</v>
+      </c>
+      <c r="AA7">
+        <v>4.55</v>
+      </c>
+      <c r="AB7">
+        <v>1.18</v>
+      </c>
+      <c r="AC7">
+        <v>3.98</v>
+      </c>
+      <c r="AD7">
+        <v>3.88</v>
+      </c>
+      <c r="AE7">
+        <v>1.57</v>
+      </c>
+      <c r="AF7">
+        <v>1.02</v>
+      </c>
+      <c r="AG7">
+        <v>13</v>
+      </c>
+      <c r="AH7">
+        <v>1.1</v>
+      </c>
+      <c r="AI7">
+        <v>5.35</v>
+      </c>
+      <c r="AJ7">
+        <v>1.46</v>
+      </c>
+      <c r="AK7">
+        <v>2.25</v>
+      </c>
+      <c r="AL7">
+        <v>1.49</v>
+      </c>
+      <c r="AM7">
+        <v>2.54</v>
+      </c>
+      <c r="AN7">
+        <v>2.21</v>
+      </c>
+      <c r="AO7">
+        <v>1.19</v>
+      </c>
+      <c r="AP7">
+        <v>1.17</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2.7</v>
+      </c>
+      <c r="AY7">
+        <v>6</v>
+      </c>
+      <c r="AZ7">
+        <v>1.57</v>
+      </c>
+      <c r="BA7">
+        <v>1.2</v>
+      </c>
+      <c r="BB7">
+        <v>1.38</v>
+      </c>
+      <c r="BC7">
+        <v>1.65</v>
+      </c>
+      <c r="BD7">
+        <v>2.02</v>
+      </c>
+      <c r="BE7">
+        <v>2.85</v>
+      </c>
+      <c r="BF7">
+        <v>6</v>
+      </c>
+      <c r="BG7">
+        <v>6</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+      <c r="BI7">
+        <v>9</v>
+      </c>
+      <c r="BJ7">
+        <v>9</v>
+      </c>
+      <c r="BK7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6617762</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>2.38</v>
+      </c>
+      <c r="U8">
+        <v>2.3</v>
+      </c>
+      <c r="V8">
+        <v>4.5</v>
+      </c>
+      <c r="W8">
+        <v>1.31</v>
+      </c>
+      <c r="X8">
+        <v>3.28</v>
+      </c>
+      <c r="Y8">
+        <v>2.36</v>
+      </c>
+      <c r="Z8">
+        <v>1.55</v>
+      </c>
+      <c r="AA8">
+        <v>5.5</v>
+      </c>
+      <c r="AB8">
+        <v>1.13</v>
+      </c>
+      <c r="AC8">
+        <v>1.74</v>
+      </c>
+      <c r="AD8">
+        <v>3.55</v>
+      </c>
+      <c r="AE8">
+        <v>3.8</v>
+      </c>
+      <c r="AF8">
+        <v>1.03</v>
+      </c>
+      <c r="AG8">
+        <v>9</v>
+      </c>
+      <c r="AH8">
+        <v>1.18</v>
+      </c>
+      <c r="AI8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.73</v>
+      </c>
+      <c r="AK8">
+        <v>2.05</v>
+      </c>
+      <c r="AL8">
+        <v>1.61</v>
+      </c>
+      <c r="AM8">
+        <v>2.25</v>
+      </c>
+      <c r="AN8">
+        <v>1.19</v>
+      </c>
+      <c r="AO8">
+        <v>1.24</v>
+      </c>
+      <c r="AP8">
+        <v>2.03</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.23</v>
+      </c>
+      <c r="AY8">
+        <v>6.75</v>
+      </c>
+      <c r="AZ8">
+        <v>4.95</v>
+      </c>
+      <c r="BA8">
+        <v>1.2</v>
+      </c>
+      <c r="BB8">
+        <v>1.38</v>
+      </c>
+      <c r="BC8">
+        <v>1.67</v>
+      </c>
+      <c r="BD8">
+        <v>2.12</v>
+      </c>
+      <c r="BE8">
+        <v>2.85</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>7</v>
+      </c>
+      <c r="BH8">
+        <v>2</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>7</v>
+      </c>
+      <c r="BK8">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,6 +232,9 @@
     <t>KV Oostende</t>
   </si>
   <si>
+    <t>Zulte-Waregem</t>
+  </si>
+  <si>
     <t>Beerschot-Wilrijk</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>Lommel United</t>
   </si>
   <si>
+    <t>Francs Borains</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -271,6 +277,9 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['66', '82', '90+6']</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['10', '31', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -883,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1053,7 +1065,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1074,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1244,7 +1256,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1265,10 +1277,10 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1435,7 +1447,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1456,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1626,7 +1638,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1647,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1817,7 +1829,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1838,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2008,7 +2020,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2029,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2158,22 +2170,213 @@
         <v>2.85</v>
       </c>
       <c r="BF8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG8">
         <v>7</v>
       </c>
       <c r="BH8">
+        <v>3</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>5</v>
+      </c>
+      <c r="BK8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6617763</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45151.59375</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="BI8">
-        <v>1</v>
-      </c>
-      <c r="BJ8">
-        <v>7</v>
-      </c>
-      <c r="BK8">
-        <v>8</v>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>23</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>27</v>
+      </c>
+      <c r="T9">
+        <v>2.05</v>
+      </c>
+      <c r="U9">
+        <v>2.4</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>1.31</v>
+      </c>
+      <c r="X9">
+        <v>3.28</v>
+      </c>
+      <c r="Y9">
+        <v>2.43</v>
+      </c>
+      <c r="Z9">
+        <v>1.52</v>
+      </c>
+      <c r="AA9">
+        <v>5.75</v>
+      </c>
+      <c r="AB9">
+        <v>1.12</v>
+      </c>
+      <c r="AC9">
+        <v>1.47</v>
+      </c>
+      <c r="AD9">
+        <v>4.3</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>1.03</v>
+      </c>
+      <c r="AG9">
+        <v>9</v>
+      </c>
+      <c r="AH9">
+        <v>1.2</v>
+      </c>
+      <c r="AI9">
+        <v>4.33</v>
+      </c>
+      <c r="AJ9">
+        <v>1.63</v>
+      </c>
+      <c r="AK9">
+        <v>2.2</v>
+      </c>
+      <c r="AL9">
+        <v>1.79</v>
+      </c>
+      <c r="AM9">
+        <v>1.98</v>
+      </c>
+      <c r="AN9">
+        <v>1.1</v>
+      </c>
+      <c r="AO9">
+        <v>1.18</v>
+      </c>
+      <c r="AP9">
+        <v>2.6</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.33</v>
+      </c>
+      <c r="AY9">
+        <v>8.5</v>
+      </c>
+      <c r="AZ9">
+        <v>4.33</v>
+      </c>
+      <c r="BA9">
+        <v>1.36</v>
+      </c>
+      <c r="BB9">
+        <v>1.66</v>
+      </c>
+      <c r="BC9">
+        <v>2.12</v>
+      </c>
+      <c r="BD9">
+        <v>2.88</v>
+      </c>
+      <c r="BE9">
+        <v>4.1</v>
+      </c>
+      <c r="BF9">
+        <v>11</v>
+      </c>
+      <c r="BG9">
+        <v>6</v>
+      </c>
+      <c r="BH9">
+        <v>13</v>
+      </c>
+      <c r="BI9">
+        <v>4</v>
+      </c>
+      <c r="BJ9">
+        <v>24</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,6 +235,12 @@
     <t>Zulte-Waregem</t>
   </si>
   <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
+    <t>Lommel United</t>
+  </si>
+  <si>
     <t>Beerschot-Wilrijk</t>
   </si>
   <si>
@@ -247,15 +253,9 @@
     <t>KMSK Deinze</t>
   </si>
   <si>
-    <t>FCV Dender EH</t>
-  </si>
-  <si>
     <t>Waasland-Beveren</t>
   </si>
   <si>
-    <t>Lommel United</t>
-  </si>
-  <si>
     <t>Francs Borains</t>
   </si>
   <si>
@@ -280,6 +280,15 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['45', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['66', '82', '90+6']</t>
   </si>
   <si>
@@ -293,6 +302,12 @@
   </si>
   <si>
     <t>['10', '31', '90+4']</t>
+  </si>
+  <si>
+    <t>['41', '71', '77']</t>
+  </si>
+  <si>
+    <t>['28', '50']</t>
   </si>
 </sst>
 </file>
@@ -654,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +889,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -898,7 +913,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1065,7 +1080,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1256,7 +1271,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1280,7 +1295,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1447,7 +1462,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1638,7 +1653,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1662,7 +1677,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1829,7 +1844,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2020,7 +2035,7 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2044,7 +2059,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2235,7 +2250,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2377,6 +2392,579 @@
       </c>
       <c r="BK9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6617764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45156.625</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>2.65</v>
+      </c>
+      <c r="U10">
+        <v>2.25</v>
+      </c>
+      <c r="V10">
+        <v>3.5</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.39</v>
+      </c>
+      <c r="Z10">
+        <v>1.52</v>
+      </c>
+      <c r="AA10">
+        <v>5.45</v>
+      </c>
+      <c r="AB10">
+        <v>1.12</v>
+      </c>
+      <c r="AC10">
+        <v>2.12</v>
+      </c>
+      <c r="AD10">
+        <v>3.45</v>
+      </c>
+      <c r="AE10">
+        <v>3.25</v>
+      </c>
+      <c r="AF10">
+        <v>1.03</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <v>1.2</v>
+      </c>
+      <c r="AI10">
+        <v>4.33</v>
+      </c>
+      <c r="AJ10">
+        <v>1.6</v>
+      </c>
+      <c r="AK10">
+        <v>2.2</v>
+      </c>
+      <c r="AL10">
+        <v>1.53</v>
+      </c>
+      <c r="AM10">
+        <v>2.4</v>
+      </c>
+      <c r="AN10">
+        <v>1.36</v>
+      </c>
+      <c r="AO10">
+        <v>1.22</v>
+      </c>
+      <c r="AP10">
+        <v>1.7</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.7</v>
+      </c>
+      <c r="AY10">
+        <v>7</v>
+      </c>
+      <c r="AZ10">
+        <v>2.7</v>
+      </c>
+      <c r="BA10">
+        <v>1.29</v>
+      </c>
+      <c r="BB10">
+        <v>1.65</v>
+      </c>
+      <c r="BC10">
+        <v>2.07</v>
+      </c>
+      <c r="BD10">
+        <v>2.6</v>
+      </c>
+      <c r="BE10">
+        <v>3.5</v>
+      </c>
+      <c r="BF10">
+        <v>8</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>5</v>
+      </c>
+      <c r="BI10">
+        <v>6</v>
+      </c>
+      <c r="BJ10">
+        <v>13</v>
+      </c>
+      <c r="BK10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6617765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45156.625</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>2.15</v>
+      </c>
+      <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>4.3</v>
+      </c>
+      <c r="W11">
+        <v>1.27</v>
+      </c>
+      <c r="X11">
+        <v>3.5</v>
+      </c>
+      <c r="Y11">
+        <v>2.2</v>
+      </c>
+      <c r="Z11">
+        <v>1.6</v>
+      </c>
+      <c r="AA11">
+        <v>4.7</v>
+      </c>
+      <c r="AB11">
+        <v>1.16</v>
+      </c>
+      <c r="AC11">
+        <v>1.66</v>
+      </c>
+      <c r="AD11">
+        <v>4.1</v>
+      </c>
+      <c r="AE11">
+        <v>4.5</v>
+      </c>
+      <c r="AF11">
+        <v>1.02</v>
+      </c>
+      <c r="AG11">
+        <v>20.5</v>
+      </c>
+      <c r="AH11">
+        <v>1.16</v>
+      </c>
+      <c r="AI11">
+        <v>5.1</v>
+      </c>
+      <c r="AJ11">
+        <v>1.5</v>
+      </c>
+      <c r="AK11">
+        <v>2.4</v>
+      </c>
+      <c r="AL11">
+        <v>1.52</v>
+      </c>
+      <c r="AM11">
+        <v>2.35</v>
+      </c>
+      <c r="AN11">
+        <v>1.16</v>
+      </c>
+      <c r="AO11">
+        <v>1.22</v>
+      </c>
+      <c r="AP11">
+        <v>2.05</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.43</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>3.6</v>
+      </c>
+      <c r="BA11">
+        <v>1.17</v>
+      </c>
+      <c r="BB11">
+        <v>1.3</v>
+      </c>
+      <c r="BC11">
+        <v>1.5</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>2.2</v>
+      </c>
+      <c r="BF11">
+        <v>11</v>
+      </c>
+      <c r="BG11">
+        <v>2</v>
+      </c>
+      <c r="BH11">
+        <v>9</v>
+      </c>
+      <c r="BI11">
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <v>20</v>
+      </c>
+      <c r="BK11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6617766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45157.45833333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2.4</v>
+      </c>
+      <c r="V12">
+        <v>3.75</v>
+      </c>
+      <c r="W12">
+        <v>1.29</v>
+      </c>
+      <c r="X12">
+        <v>3.5</v>
+      </c>
+      <c r="Y12">
+        <v>2.25</v>
+      </c>
+      <c r="Z12">
+        <v>1.57</v>
+      </c>
+      <c r="AA12">
+        <v>5.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.14</v>
+      </c>
+      <c r="AC12">
+        <v>2.33</v>
+      </c>
+      <c r="AD12">
+        <v>3.5</v>
+      </c>
+      <c r="AE12">
+        <v>2.63</v>
+      </c>
+      <c r="AF12">
+        <v>1.03</v>
+      </c>
+      <c r="AG12">
+        <v>17.75</v>
+      </c>
+      <c r="AH12">
+        <v>1.13</v>
+      </c>
+      <c r="AI12">
+        <v>4.4</v>
+      </c>
+      <c r="AJ12">
+        <v>1.5</v>
+      </c>
+      <c r="AK12">
+        <v>2.41</v>
+      </c>
+      <c r="AL12">
+        <v>1.5</v>
+      </c>
+      <c r="AM12">
+        <v>2.5</v>
+      </c>
+      <c r="AN12">
+        <v>1.3</v>
+      </c>
+      <c r="AO12">
+        <v>1.28</v>
+      </c>
+      <c r="AP12">
+        <v>1.75</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2.2</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>2</v>
+      </c>
+      <c r="BA12">
+        <v>1.23</v>
+      </c>
+      <c r="BB12">
+        <v>1.42</v>
+      </c>
+      <c r="BC12">
+        <v>1.74</v>
+      </c>
+      <c r="BD12">
+        <v>2.23</v>
+      </c>
+      <c r="BE12">
+        <v>3.05</v>
+      </c>
+      <c r="BF12">
+        <v>11</v>
+      </c>
+      <c r="BG12">
+        <v>7</v>
+      </c>
+      <c r="BH12">
+        <v>9</v>
+      </c>
+      <c r="BI12">
+        <v>7</v>
+      </c>
+      <c r="BJ12">
+        <v>20</v>
+      </c>
+      <c r="BK12">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,21 +244,21 @@
     <t>Beerschot-Wilrijk</t>
   </si>
   <si>
+    <t>KMSK Deinze</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>Lierse Kempenzonen</t>
+  </si>
+  <si>
+    <t>Francs Borains</t>
+  </si>
+  <si>
     <t>Standard Liège II</t>
   </si>
   <si>
-    <t>Lierse Kempenzonen</t>
-  </si>
-  <si>
-    <t>KMSK Deinze</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren</t>
-  </si>
-  <si>
-    <t>Francs Borains</t>
-  </si>
-  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -289,6 +289,21 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['45+3', '62']</t>
+  </si>
+  <si>
+    <t>['55', '80']</t>
+  </si>
+  <si>
+    <t>['66', '66']</t>
+  </si>
+  <si>
     <t>['66', '82', '90+6']</t>
   </si>
   <si>
@@ -308,6 +323,18 @@
   </si>
   <si>
     <t>['28', '50']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['45', '45+3', '65', '90+3', '90+6']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +940,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1080,7 +1107,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1271,7 +1298,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1295,7 +1322,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1462,7 +1489,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1677,7 +1704,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1844,7 +1871,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2059,7 +2086,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2226,7 +2253,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2250,7 +2277,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2441,7 +2468,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2823,7 +2850,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -2949,22 +2976,977 @@
         <v>3.05</v>
       </c>
       <c r="BF12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BG12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH12">
         <v>9</v>
       </c>
       <c r="BI12">
+        <v>8</v>
+      </c>
+      <c r="BJ12">
+        <v>23</v>
+      </c>
+      <c r="BK12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6617767</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45157.625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
+        <v>2.25</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1.33</v>
+      </c>
+      <c r="X13">
+        <v>3.25</v>
+      </c>
+      <c r="Y13">
+        <v>2.63</v>
+      </c>
+      <c r="Z13">
+        <v>1.44</v>
+      </c>
+      <c r="AA13">
+        <v>6.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.11</v>
+      </c>
+      <c r="AC13">
+        <v>2.58</v>
+      </c>
+      <c r="AD13">
+        <v>3.25</v>
+      </c>
+      <c r="AE13">
+        <v>2.5</v>
+      </c>
+      <c r="AF13">
+        <v>1.04</v>
+      </c>
+      <c r="AG13">
+        <v>11</v>
+      </c>
+      <c r="AH13">
+        <v>1.2</v>
+      </c>
+      <c r="AI13">
+        <v>4.61</v>
+      </c>
+      <c r="AJ13">
+        <v>1.65</v>
+      </c>
+      <c r="AK13">
+        <v>2.11</v>
+      </c>
+      <c r="AL13">
+        <v>1.57</v>
+      </c>
+      <c r="AM13">
+        <v>2.25</v>
+      </c>
+      <c r="AN13">
+        <v>1.55</v>
+      </c>
+      <c r="AO13">
+        <v>1.26</v>
+      </c>
+      <c r="AP13">
+        <v>1.41</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>2.1</v>
+      </c>
+      <c r="AY13">
         <v>7</v>
       </c>
-      <c r="BJ12">
-        <v>20</v>
-      </c>
-      <c r="BK12">
+      <c r="AZ13">
+        <v>2.1</v>
+      </c>
+      <c r="BA13">
+        <v>1.23</v>
+      </c>
+      <c r="BB13">
+        <v>1.42</v>
+      </c>
+      <c r="BC13">
+        <v>1.74</v>
+      </c>
+      <c r="BD13">
+        <v>2.23</v>
+      </c>
+      <c r="BE13">
+        <v>3.05</v>
+      </c>
+      <c r="BF13">
+        <v>5</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>4</v>
+      </c>
+      <c r="BI13">
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <v>9</v>
+      </c>
+      <c r="BK13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6617768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45157.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>2.63</v>
+      </c>
+      <c r="U14">
+        <v>2.3</v>
+      </c>
+      <c r="V14">
+        <v>3.75</v>
+      </c>
+      <c r="W14">
+        <v>1.33</v>
+      </c>
+      <c r="X14">
+        <v>3.25</v>
+      </c>
+      <c r="Y14">
+        <v>2.5</v>
+      </c>
+      <c r="Z14">
+        <v>1.5</v>
+      </c>
+      <c r="AA14">
+        <v>6.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.11</v>
+      </c>
+      <c r="AC14">
+        <v>1.7</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AE14">
+        <v>3.89</v>
+      </c>
+      <c r="AF14">
+        <v>1.04</v>
+      </c>
+      <c r="AG14">
+        <v>11</v>
+      </c>
+      <c r="AH14">
+        <v>1.16</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.59</v>
+      </c>
+      <c r="AK14">
+        <v>2.21</v>
+      </c>
+      <c r="AL14">
+        <v>1.62</v>
+      </c>
+      <c r="AM14">
+        <v>2.2</v>
+      </c>
+      <c r="AN14">
+        <v>1.3</v>
+      </c>
+      <c r="AO14">
+        <v>1.27</v>
+      </c>
+      <c r="AP14">
+        <v>1.77</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>1.45</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <v>3.5</v>
+      </c>
+      <c r="BA14">
+        <v>1.23</v>
+      </c>
+      <c r="BB14">
+        <v>1.42</v>
+      </c>
+      <c r="BC14">
+        <v>1.74</v>
+      </c>
+      <c r="BD14">
+        <v>2.23</v>
+      </c>
+      <c r="BE14">
+        <v>3.05</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>2</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+      <c r="BI14">
+        <v>7</v>
+      </c>
+      <c r="BJ14">
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6617769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45158.35416666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <v>14</v>
+      </c>
+      <c r="T15">
+        <v>2.88</v>
+      </c>
+      <c r="U15">
+        <v>2.38</v>
+      </c>
+      <c r="V15">
+        <v>3.1</v>
+      </c>
+      <c r="W15">
+        <v>1.29</v>
+      </c>
+      <c r="X15">
+        <v>3.5</v>
+      </c>
+      <c r="Y15">
+        <v>2.25</v>
+      </c>
+      <c r="Z15">
+        <v>1.57</v>
+      </c>
+      <c r="AA15">
+        <v>5.5</v>
+      </c>
+      <c r="AB15">
+        <v>1.14</v>
+      </c>
+      <c r="AC15">
+        <v>2.58</v>
+      </c>
+      <c r="AD15">
+        <v>3.4</v>
+      </c>
+      <c r="AE15">
+        <v>2.42</v>
+      </c>
+      <c r="AF15">
+        <v>1.03</v>
+      </c>
+      <c r="AG15">
+        <v>18.25</v>
+      </c>
+      <c r="AH15">
+        <v>1.13</v>
+      </c>
+      <c r="AI15">
+        <v>4.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.58</v>
+      </c>
+      <c r="AK15">
+        <v>2.23</v>
+      </c>
+      <c r="AL15">
+        <v>1.5</v>
+      </c>
+      <c r="AM15">
+        <v>2.5</v>
+      </c>
+      <c r="AN15">
+        <v>1.43</v>
+      </c>
+      <c r="AO15">
+        <v>1.25</v>
+      </c>
+      <c r="AP15">
+        <v>1.53</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>1.23</v>
+      </c>
+      <c r="BB15">
+        <v>1.42</v>
+      </c>
+      <c r="BC15">
+        <v>1.74</v>
+      </c>
+      <c r="BD15">
+        <v>2.23</v>
+      </c>
+      <c r="BE15">
+        <v>3.05</v>
+      </c>
+      <c r="BF15">
+        <v>4</v>
+      </c>
+      <c r="BG15">
+        <v>6</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>4</v>
+      </c>
+      <c r="BJ15">
+        <v>7</v>
+      </c>
+      <c r="BK15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6617770</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45158.45833333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>2.88</v>
+      </c>
+      <c r="U16">
+        <v>2.4</v>
+      </c>
+      <c r="V16">
+        <v>3.25</v>
+      </c>
+      <c r="W16">
+        <v>1.29</v>
+      </c>
+      <c r="X16">
+        <v>3.5</v>
+      </c>
+      <c r="Y16">
+        <v>2.25</v>
+      </c>
+      <c r="Z16">
+        <v>1.57</v>
+      </c>
+      <c r="AA16">
+        <v>5.5</v>
+      </c>
+      <c r="AB16">
+        <v>1.14</v>
+      </c>
+      <c r="AC16">
+        <v>2.17</v>
+      </c>
+      <c r="AD16">
+        <v>3.43</v>
+      </c>
+      <c r="AE16">
+        <v>2.65</v>
+      </c>
+      <c r="AF16">
+        <v>1.03</v>
+      </c>
+      <c r="AG16">
+        <v>18.25</v>
+      </c>
+      <c r="AH16">
+        <v>1.17</v>
+      </c>
+      <c r="AI16">
+        <v>4.8</v>
+      </c>
+      <c r="AJ16">
+        <v>1.44</v>
+      </c>
+      <c r="AK16">
+        <v>2.29</v>
+      </c>
+      <c r="AL16">
+        <v>1.5</v>
+      </c>
+      <c r="AM16">
+        <v>2.5</v>
+      </c>
+      <c r="AN16">
+        <v>1.38</v>
+      </c>
+      <c r="AO16">
+        <v>1.26</v>
+      </c>
+      <c r="AP16">
+        <v>1.57</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>3</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>1.67</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>2.8</v>
+      </c>
+      <c r="BA16">
+        <v>1.23</v>
+      </c>
+      <c r="BB16">
+        <v>1.42</v>
+      </c>
+      <c r="BC16">
+        <v>1.74</v>
+      </c>
+      <c r="BD16">
+        <v>2.23</v>
+      </c>
+      <c r="BE16">
+        <v>3.05</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>11</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>3</v>
+      </c>
+      <c r="BJ16">
+        <v>5</v>
+      </c>
+      <c r="BK16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6617771</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45158.59375</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>3.1</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>3.1</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>3.25</v>
+      </c>
+      <c r="Y17">
+        <v>2.63</v>
+      </c>
+      <c r="Z17">
+        <v>1.44</v>
+      </c>
+      <c r="AA17">
+        <v>6.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.11</v>
+      </c>
+      <c r="AC17">
+        <v>2.35</v>
+      </c>
+      <c r="AD17">
+        <v>3.56</v>
+      </c>
+      <c r="AE17">
+        <v>2.35</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>15</v>
+      </c>
+      <c r="AH17">
+        <v>1.22</v>
+      </c>
+      <c r="AI17">
+        <v>3.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1.58</v>
+      </c>
+      <c r="AK17">
+        <v>2.3</v>
+      </c>
+      <c r="AL17">
+        <v>1.62</v>
+      </c>
+      <c r="AM17">
+        <v>2.2</v>
+      </c>
+      <c r="AN17">
+        <v>1.5</v>
+      </c>
+      <c r="AO17">
+        <v>1.26</v>
+      </c>
+      <c r="AP17">
+        <v>1.47</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>3.1</v>
+      </c>
+      <c r="AY17">
+        <v>7.5</v>
+      </c>
+      <c r="AZ17">
+        <v>1.55</v>
+      </c>
+      <c r="BA17">
+        <v>1.17</v>
+      </c>
+      <c r="BB17">
+        <v>1.3</v>
+      </c>
+      <c r="BC17">
+        <v>1.54</v>
+      </c>
+      <c r="BD17">
+        <v>1.95</v>
+      </c>
+      <c r="BE17">
+        <v>2.5</v>
+      </c>
+      <c r="BF17">
+        <v>4</v>
+      </c>
+      <c r="BG17">
+        <v>10</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>7</v>
+      </c>
+      <c r="BJ17">
+        <v>5</v>
+      </c>
+      <c r="BK17">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,18 @@
     <t>['66', '66']</t>
   </si>
   <si>
+    <t>['49', '88']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['13', '85']</t>
+  </si>
+  <si>
+    <t>['21', '37']</t>
+  </si>
+  <si>
     <t>['66', '82', '90+6']</t>
   </si>
   <si>
@@ -335,6 +347,18 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['12', '45+1', '82']</t>
+  </si>
+  <si>
+    <t>['48', '81', '84', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['9', '61']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +964,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1218,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1322,7 +1346,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1412,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1704,7 +1728,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1791,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -1982,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2086,7 +2110,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2277,7 +2301,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2468,7 +2492,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2555,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -2749,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2850,7 +2874,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3232,7 +3256,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3423,7 +3447,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3614,7 +3638,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3805,7 +3829,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -3947,6 +3971,1152 @@
       </c>
       <c r="BK17">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6617772</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45163.625</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>12</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>2.5</v>
+      </c>
+      <c r="V18">
+        <v>3.8</v>
+      </c>
+      <c r="W18">
+        <v>1.23</v>
+      </c>
+      <c r="X18">
+        <v>3.75</v>
+      </c>
+      <c r="Y18">
+        <v>2.05</v>
+      </c>
+      <c r="Z18">
+        <v>1.68</v>
+      </c>
+      <c r="AA18">
+        <v>4.2</v>
+      </c>
+      <c r="AB18">
+        <v>1.19</v>
+      </c>
+      <c r="AC18">
+        <v>1.68</v>
+      </c>
+      <c r="AD18">
+        <v>3.8</v>
+      </c>
+      <c r="AE18">
+        <v>3.7</v>
+      </c>
+      <c r="AF18">
+        <v>1.02</v>
+      </c>
+      <c r="AG18">
+        <v>24</v>
+      </c>
+      <c r="AH18">
+        <v>1.13</v>
+      </c>
+      <c r="AI18">
+        <v>5.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.37</v>
+      </c>
+      <c r="AK18">
+        <v>2.5</v>
+      </c>
+      <c r="AL18">
+        <v>1.42</v>
+      </c>
+      <c r="AM18">
+        <v>2.65</v>
+      </c>
+      <c r="AN18">
+        <v>1.22</v>
+      </c>
+      <c r="AO18">
+        <v>1.18</v>
+      </c>
+      <c r="AP18">
+        <v>1.95</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1.5</v>
+      </c>
+      <c r="AT18">
+        <v>1.5</v>
+      </c>
+      <c r="AU18">
+        <v>1.32</v>
+      </c>
+      <c r="AV18">
+        <v>1.04</v>
+      </c>
+      <c r="AW18">
+        <v>2.36</v>
+      </c>
+      <c r="AX18">
+        <v>1.45</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>3.5</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>1.2</v>
+      </c>
+      <c r="BC18">
+        <v>1.34</v>
+      </c>
+      <c r="BD18">
+        <v>1.59</v>
+      </c>
+      <c r="BE18">
+        <v>2</v>
+      </c>
+      <c r="BF18">
+        <v>5</v>
+      </c>
+      <c r="BG18">
+        <v>4</v>
+      </c>
+      <c r="BH18">
+        <v>4</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>9</v>
+      </c>
+      <c r="BK18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6617773</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45163.625</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>2.95</v>
+      </c>
+      <c r="U19">
+        <v>2.2</v>
+      </c>
+      <c r="V19">
+        <v>2.9</v>
+      </c>
+      <c r="W19">
+        <v>1.32</v>
+      </c>
+      <c r="X19">
+        <v>3.15</v>
+      </c>
+      <c r="Y19">
+        <v>2.3</v>
+      </c>
+      <c r="Z19">
+        <v>1.55</v>
+      </c>
+      <c r="AA19">
+        <v>5.2</v>
+      </c>
+      <c r="AB19">
+        <v>1.13</v>
+      </c>
+      <c r="AC19">
+        <v>2.34</v>
+      </c>
+      <c r="AD19">
+        <v>3.65</v>
+      </c>
+      <c r="AE19">
+        <v>2.34</v>
+      </c>
+      <c r="AF19">
+        <v>1.03</v>
+      </c>
+      <c r="AG19">
+        <v>9</v>
+      </c>
+      <c r="AH19">
+        <v>1.18</v>
+      </c>
+      <c r="AI19">
+        <v>4.3</v>
+      </c>
+      <c r="AJ19">
+        <v>1.52</v>
+      </c>
+      <c r="AK19">
+        <v>2.13</v>
+      </c>
+      <c r="AL19">
+        <v>1.5</v>
+      </c>
+      <c r="AM19">
+        <v>2.4</v>
+      </c>
+      <c r="AN19">
+        <v>1.44</v>
+      </c>
+      <c r="AO19">
+        <v>1.3</v>
+      </c>
+      <c r="AP19">
+        <v>1.44</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
+      <c r="AS19">
+        <v>1.5</v>
+      </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
+      <c r="AU19">
+        <v>1.5</v>
+      </c>
+      <c r="AV19">
+        <v>1.87</v>
+      </c>
+      <c r="AW19">
+        <v>3.37</v>
+      </c>
+      <c r="AX19">
+        <v>2.09</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
+      </c>
+      <c r="AZ19">
+        <v>1.94</v>
+      </c>
+      <c r="BA19">
+        <v>1.2</v>
+      </c>
+      <c r="BB19">
+        <v>1.38</v>
+      </c>
+      <c r="BC19">
+        <v>1.63</v>
+      </c>
+      <c r="BD19">
+        <v>2.03</v>
+      </c>
+      <c r="BE19">
+        <v>2.6</v>
+      </c>
+      <c r="BF19">
+        <v>5</v>
+      </c>
+      <c r="BG19">
+        <v>11</v>
+      </c>
+      <c r="BH19">
+        <v>5</v>
+      </c>
+      <c r="BI19">
+        <v>7</v>
+      </c>
+      <c r="BJ19">
+        <v>10</v>
+      </c>
+      <c r="BK19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6617775</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45164.625</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>3.5</v>
+      </c>
+      <c r="U20">
+        <v>2.23</v>
+      </c>
+      <c r="V20">
+        <v>2.66</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>3.15</v>
+      </c>
+      <c r="Y20">
+        <v>2.52</v>
+      </c>
+      <c r="Z20">
+        <v>1.49</v>
+      </c>
+      <c r="AA20">
+        <v>6</v>
+      </c>
+      <c r="AB20">
+        <v>1.11</v>
+      </c>
+      <c r="AC20">
+        <v>2.65</v>
+      </c>
+      <c r="AD20">
+        <v>3.35</v>
+      </c>
+      <c r="AE20">
+        <v>2.35</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>11</v>
+      </c>
+      <c r="AH20">
+        <v>1.2</v>
+      </c>
+      <c r="AI20">
+        <v>3.92</v>
+      </c>
+      <c r="AJ20">
+        <v>1.61</v>
+      </c>
+      <c r="AK20">
+        <v>2.05</v>
+      </c>
+      <c r="AL20">
+        <v>1.59</v>
+      </c>
+      <c r="AM20">
+        <v>2.21</v>
+      </c>
+      <c r="AN20">
+        <v>1.65</v>
+      </c>
+      <c r="AO20">
+        <v>1.27</v>
+      </c>
+      <c r="AP20">
+        <v>1.35</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0.77</v>
+      </c>
+      <c r="AV20">
+        <v>1.82</v>
+      </c>
+      <c r="AW20">
+        <v>2.59</v>
+      </c>
+      <c r="AX20">
+        <v>2.33</v>
+      </c>
+      <c r="AY20">
+        <v>8.1</v>
+      </c>
+      <c r="AZ20">
+        <v>1.81</v>
+      </c>
+      <c r="BA20">
+        <v>1.46</v>
+      </c>
+      <c r="BB20">
+        <v>1.95</v>
+      </c>
+      <c r="BC20">
+        <v>2.38</v>
+      </c>
+      <c r="BD20">
+        <v>3.28</v>
+      </c>
+      <c r="BE20">
+        <v>5.1</v>
+      </c>
+      <c r="BF20">
+        <v>4</v>
+      </c>
+      <c r="BG20">
+        <v>2</v>
+      </c>
+      <c r="BH20">
+        <v>5</v>
+      </c>
+      <c r="BI20">
+        <v>4</v>
+      </c>
+      <c r="BJ20">
+        <v>9</v>
+      </c>
+      <c r="BK20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6617776</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45164.625</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>2.56</v>
+      </c>
+      <c r="U21">
+        <v>2.34</v>
+      </c>
+      <c r="V21">
+        <v>3.5</v>
+      </c>
+      <c r="W21">
+        <v>1.27</v>
+      </c>
+      <c r="X21">
+        <v>3.55</v>
+      </c>
+      <c r="Y21">
+        <v>2.27</v>
+      </c>
+      <c r="Z21">
+        <v>1.59</v>
+      </c>
+      <c r="AA21">
+        <v>5.15</v>
+      </c>
+      <c r="AB21">
+        <v>1.14</v>
+      </c>
+      <c r="AC21">
+        <v>2.1</v>
+      </c>
+      <c r="AD21">
+        <v>3.5</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AF21">
+        <v>1.02</v>
+      </c>
+      <c r="AG21">
+        <v>12</v>
+      </c>
+      <c r="AH21">
+        <v>1.14</v>
+      </c>
+      <c r="AI21">
+        <v>4.7</v>
+      </c>
+      <c r="AJ21">
+        <v>1.53</v>
+      </c>
+      <c r="AK21">
+        <v>2.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.48</v>
+      </c>
+      <c r="AM21">
+        <v>2.46</v>
+      </c>
+      <c r="AN21">
+        <v>1.34</v>
+      </c>
+      <c r="AO21">
+        <v>1.24</v>
+      </c>
+      <c r="AP21">
+        <v>1.69</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>2.56</v>
+      </c>
+      <c r="AV21">
+        <v>1.33</v>
+      </c>
+      <c r="AW21">
+        <v>3.89</v>
+      </c>
+      <c r="AX21">
+        <v>1.87</v>
+      </c>
+      <c r="AY21">
+        <v>8.9</v>
+      </c>
+      <c r="AZ21">
+        <v>2.18</v>
+      </c>
+      <c r="BA21">
+        <v>1.18</v>
+      </c>
+      <c r="BB21">
+        <v>1.36</v>
+      </c>
+      <c r="BC21">
+        <v>1.72</v>
+      </c>
+      <c r="BD21">
+        <v>2.13</v>
+      </c>
+      <c r="BE21">
+        <v>2.75</v>
+      </c>
+      <c r="BF21">
+        <v>4</v>
+      </c>
+      <c r="BG21">
+        <v>8</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>9</v>
+      </c>
+      <c r="BJ21">
+        <v>5</v>
+      </c>
+      <c r="BK21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6617777</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45165.35416666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>2.25</v>
+      </c>
+      <c r="V22">
+        <v>3.3</v>
+      </c>
+      <c r="W22">
+        <v>1.32</v>
+      </c>
+      <c r="X22">
+        <v>3.15</v>
+      </c>
+      <c r="Y22">
+        <v>2.45</v>
+      </c>
+      <c r="Z22">
+        <v>1.49</v>
+      </c>
+      <c r="AA22">
+        <v>5.45</v>
+      </c>
+      <c r="AB22">
+        <v>1.12</v>
+      </c>
+      <c r="AC22">
+        <v>2.1</v>
+      </c>
+      <c r="AD22">
+        <v>3.6</v>
+      </c>
+      <c r="AE22">
+        <v>3.2</v>
+      </c>
+      <c r="AF22">
+        <v>1.01</v>
+      </c>
+      <c r="AG22">
+        <v>10.5</v>
+      </c>
+      <c r="AH22">
+        <v>1.18</v>
+      </c>
+      <c r="AI22">
+        <v>4.1</v>
+      </c>
+      <c r="AJ22">
+        <v>1.67</v>
+      </c>
+      <c r="AK22">
+        <v>2.1</v>
+      </c>
+      <c r="AL22">
+        <v>1.57</v>
+      </c>
+      <c r="AM22">
+        <v>2.3</v>
+      </c>
+      <c r="AN22">
+        <v>1.38</v>
+      </c>
+      <c r="AO22">
+        <v>1.22</v>
+      </c>
+      <c r="AP22">
+        <v>1.65</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0.5</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.84</v>
+      </c>
+      <c r="AV22">
+        <v>1.47</v>
+      </c>
+      <c r="AW22">
+        <v>3.31</v>
+      </c>
+      <c r="AX22">
+        <v>1.92</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>2.11</v>
+      </c>
+      <c r="BA22">
+        <v>1.22</v>
+      </c>
+      <c r="BB22">
+        <v>1.33</v>
+      </c>
+      <c r="BC22">
+        <v>1.66</v>
+      </c>
+      <c r="BD22">
+        <v>2.04</v>
+      </c>
+      <c r="BE22">
+        <v>2.6</v>
+      </c>
+      <c r="BF22">
+        <v>8</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>5</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>13</v>
+      </c>
+      <c r="BK22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6617778</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45165.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>3.2</v>
+      </c>
+      <c r="U23">
+        <v>2.2</v>
+      </c>
+      <c r="V23">
+        <v>2.85</v>
+      </c>
+      <c r="W23">
+        <v>1.32</v>
+      </c>
+      <c r="X23">
+        <v>3.1</v>
+      </c>
+      <c r="Y23">
+        <v>2.5</v>
+      </c>
+      <c r="Z23">
+        <v>1.47</v>
+      </c>
+      <c r="AA23">
+        <v>5.3</v>
+      </c>
+      <c r="AB23">
+        <v>1.12</v>
+      </c>
+      <c r="AC23">
+        <v>2.94</v>
+      </c>
+      <c r="AD23">
+        <v>3.55</v>
+      </c>
+      <c r="AE23">
+        <v>2.23</v>
+      </c>
+      <c r="AF23">
+        <v>1.03</v>
+      </c>
+      <c r="AG23">
+        <v>9</v>
+      </c>
+      <c r="AH23">
+        <v>1.2</v>
+      </c>
+      <c r="AI23">
+        <v>4.1</v>
+      </c>
+      <c r="AJ23">
+        <v>1.65</v>
+      </c>
+      <c r="AK23">
+        <v>2.04</v>
+      </c>
+      <c r="AL23">
+        <v>1.55</v>
+      </c>
+      <c r="AM23">
+        <v>2.3</v>
+      </c>
+      <c r="AN23">
+        <v>1.55</v>
+      </c>
+      <c r="AO23">
+        <v>1.25</v>
+      </c>
+      <c r="AP23">
+        <v>1.33</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0.77</v>
+      </c>
+      <c r="AV23">
+        <v>0.5</v>
+      </c>
+      <c r="AW23">
+        <v>1.27</v>
+      </c>
+      <c r="AX23">
+        <v>2.06</v>
+      </c>
+      <c r="AY23">
+        <v>7.6</v>
+      </c>
+      <c r="AZ23">
+        <v>2.05</v>
+      </c>
+      <c r="BA23">
+        <v>1.15</v>
+      </c>
+      <c r="BB23">
+        <v>1.29</v>
+      </c>
+      <c r="BC23">
+        <v>1.5</v>
+      </c>
+      <c r="BD23">
+        <v>1.85</v>
+      </c>
+      <c r="BE23">
+        <v>2.43</v>
+      </c>
+      <c r="BF23">
+        <v>8</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>2</v>
+      </c>
+      <c r="BJ23">
+        <v>10</v>
+      </c>
+      <c r="BK23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>['21', '37']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
   <si>
     <t>['66', '82', '90+6']</t>
@@ -720,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +967,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1346,7 +1349,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1728,7 +1731,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2110,7 +2113,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2301,7 +2304,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2492,7 +2495,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2582,7 +2585,7 @@
         <v>0.5</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2874,7 +2877,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3256,7 +3259,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3447,7 +3450,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3638,7 +3641,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>3</v>
@@ -3829,7 +3832,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4020,7 +4023,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4211,7 +4214,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4402,7 +4405,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4528,22 +4531,22 @@
         <v>5.1</v>
       </c>
       <c r="BF20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI20">
         <v>4</v>
       </c>
       <c r="BJ20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -4722,19 +4725,19 @@
         <v>4</v>
       </c>
       <c r="BG21">
+        <v>7</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
         <v>8</v>
       </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21">
-        <v>9</v>
-      </c>
       <c r="BJ21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK21">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -4784,7 +4787,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5101,22 +5104,213 @@
         <v>2.43</v>
       </c>
       <c r="BF23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK23">
         <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6617779</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45165.59375</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>14</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>2.7</v>
+      </c>
+      <c r="U24">
+        <v>2.3</v>
+      </c>
+      <c r="V24">
+        <v>3.3</v>
+      </c>
+      <c r="W24">
+        <v>1.28</v>
+      </c>
+      <c r="X24">
+        <v>3.4</v>
+      </c>
+      <c r="Y24">
+        <v>2.29</v>
+      </c>
+      <c r="Z24">
+        <v>1.56</v>
+      </c>
+      <c r="AA24">
+        <v>4.95</v>
+      </c>
+      <c r="AB24">
+        <v>1.14</v>
+      </c>
+      <c r="AC24">
+        <v>2.2</v>
+      </c>
+      <c r="AD24">
+        <v>3.41</v>
+      </c>
+      <c r="AE24">
+        <v>2.62</v>
+      </c>
+      <c r="AF24">
+        <v>1.02</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>1.18</v>
+      </c>
+      <c r="AI24">
+        <v>4.75</v>
+      </c>
+      <c r="AJ24">
+        <v>1.45</v>
+      </c>
+      <c r="AK24">
+        <v>2.27</v>
+      </c>
+      <c r="AL24">
+        <v>1.47</v>
+      </c>
+      <c r="AM24">
+        <v>2.55</v>
+      </c>
+      <c r="AN24">
+        <v>1.42</v>
+      </c>
+      <c r="AO24">
+        <v>1.22</v>
+      </c>
+      <c r="AP24">
+        <v>1.63</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>1.5</v>
+      </c>
+      <c r="AT24">
+        <v>1.5</v>
+      </c>
+      <c r="AU24">
+        <v>0.87</v>
+      </c>
+      <c r="AV24">
+        <v>1.24</v>
+      </c>
+      <c r="AW24">
+        <v>2.11</v>
+      </c>
+      <c r="AX24">
+        <v>1.93</v>
+      </c>
+      <c r="AY24">
+        <v>7.3</v>
+      </c>
+      <c r="AZ24">
+        <v>2.25</v>
+      </c>
+      <c r="BA24">
+        <v>1.27</v>
+      </c>
+      <c r="BB24">
+        <v>1.5</v>
+      </c>
+      <c r="BC24">
+        <v>1.93</v>
+      </c>
+      <c r="BD24">
+        <v>2.45</v>
+      </c>
+      <c r="BE24">
+        <v>3.4</v>
+      </c>
+      <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BH24">
+        <v>5</v>
+      </c>
+      <c r="BI24">
+        <v>6</v>
+      </c>
+      <c r="BJ24">
+        <v>10</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,27 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['3', '61', '85']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['66', '90+2']</t>
+  </si>
+  <si>
     <t>['66', '82', '90+6']</t>
   </si>
   <si>
@@ -362,6 +383,18 @@
   </si>
   <si>
     <t>['9', '61']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['37', '77']</t>
+  </si>
+  <si>
+    <t>['25', '48']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +1000,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1054,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1349,7 +1382,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1436,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -1731,7 +1764,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1821,7 +1854,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2113,7 +2146,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2200,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -2304,7 +2337,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2391,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2495,7 +2528,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2877,7 +2910,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -2964,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>3</v>
@@ -3259,7 +3292,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3450,7 +3483,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3537,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3641,7 +3674,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3731,7 +3764,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3832,7 +3865,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4023,7 +4056,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4214,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4405,7 +4438,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4787,7 +4820,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5311,6 +5344,1343 @@
       </c>
       <c r="BK24">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6617780</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45170.625</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>2.3</v>
+      </c>
+      <c r="U25">
+        <v>2.5</v>
+      </c>
+      <c r="V25">
+        <v>4.33</v>
+      </c>
+      <c r="W25">
+        <v>1.24</v>
+      </c>
+      <c r="X25">
+        <v>3.7</v>
+      </c>
+      <c r="Y25">
+        <v>2.23</v>
+      </c>
+      <c r="Z25">
+        <v>1.62</v>
+      </c>
+      <c r="AA25">
+        <v>4.95</v>
+      </c>
+      <c r="AB25">
+        <v>1.16</v>
+      </c>
+      <c r="AC25">
+        <v>1.75</v>
+      </c>
+      <c r="AD25">
+        <v>4.1</v>
+      </c>
+      <c r="AE25">
+        <v>3.9</v>
+      </c>
+      <c r="AF25">
+        <v>1.01</v>
+      </c>
+      <c r="AG25">
+        <v>20</v>
+      </c>
+      <c r="AH25">
+        <v>1.14</v>
+      </c>
+      <c r="AI25">
+        <v>5.4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.39</v>
+      </c>
+      <c r="AK25">
+        <v>2.55</v>
+      </c>
+      <c r="AL25">
+        <v>1.5</v>
+      </c>
+      <c r="AM25">
+        <v>2.5</v>
+      </c>
+      <c r="AN25">
+        <v>1.22</v>
+      </c>
+      <c r="AO25">
+        <v>1.22</v>
+      </c>
+      <c r="AP25">
+        <v>1.99</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>2</v>
+      </c>
+      <c r="AU25">
+        <v>2.98</v>
+      </c>
+      <c r="AV25">
+        <v>1.44</v>
+      </c>
+      <c r="AW25">
+        <v>4.42</v>
+      </c>
+      <c r="AX25">
+        <v>1.59</v>
+      </c>
+      <c r="AY25">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ25">
+        <v>2.77</v>
+      </c>
+      <c r="BA25">
+        <v>1.33</v>
+      </c>
+      <c r="BB25">
+        <v>1.69</v>
+      </c>
+      <c r="BC25">
+        <v>2.1</v>
+      </c>
+      <c r="BD25">
+        <v>2.71</v>
+      </c>
+      <c r="BE25">
+        <v>3.74</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>11</v>
+      </c>
+      <c r="BH25">
+        <v>2</v>
+      </c>
+      <c r="BI25">
+        <v>11</v>
+      </c>
+      <c r="BJ25">
+        <v>5</v>
+      </c>
+      <c r="BK25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6617781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45170.625</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26">
+        <v>2.81</v>
+      </c>
+      <c r="U26">
+        <v>2.51</v>
+      </c>
+      <c r="V26">
+        <v>3.26</v>
+      </c>
+      <c r="W26">
+        <v>1.25</v>
+      </c>
+      <c r="X26">
+        <v>3.72</v>
+      </c>
+      <c r="Y26">
+        <v>2.25</v>
+      </c>
+      <c r="Z26">
+        <v>1.63</v>
+      </c>
+      <c r="AA26">
+        <v>4.85</v>
+      </c>
+      <c r="AB26">
+        <v>1.16</v>
+      </c>
+      <c r="AC26">
+        <v>2.36</v>
+      </c>
+      <c r="AD26">
+        <v>3.65</v>
+      </c>
+      <c r="AE26">
+        <v>2.68</v>
+      </c>
+      <c r="AF26">
+        <v>1.02</v>
+      </c>
+      <c r="AG26">
+        <v>21</v>
+      </c>
+      <c r="AH26">
+        <v>1.15</v>
+      </c>
+      <c r="AI26">
+        <v>5.28</v>
+      </c>
+      <c r="AJ26">
+        <v>1.39</v>
+      </c>
+      <c r="AK26">
+        <v>2.44</v>
+      </c>
+      <c r="AL26">
+        <v>1.43</v>
+      </c>
+      <c r="AM26">
+        <v>2.73</v>
+      </c>
+      <c r="AN26">
+        <v>1.42</v>
+      </c>
+      <c r="AO26">
+        <v>1.28</v>
+      </c>
+      <c r="AP26">
+        <v>1.58</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>2</v>
+      </c>
+      <c r="AU26">
+        <v>1.42</v>
+      </c>
+      <c r="AV26">
+        <v>2.12</v>
+      </c>
+      <c r="AW26">
+        <v>3.54</v>
+      </c>
+      <c r="AX26">
+        <v>1.95</v>
+      </c>
+      <c r="AY26">
+        <v>7</v>
+      </c>
+      <c r="AZ26">
+        <v>2.25</v>
+      </c>
+      <c r="BA26">
+        <v>1.18</v>
+      </c>
+      <c r="BB26">
+        <v>1.32</v>
+      </c>
+      <c r="BC26">
+        <v>1.58</v>
+      </c>
+      <c r="BD26">
+        <v>1.99</v>
+      </c>
+      <c r="BE26">
+        <v>2.54</v>
+      </c>
+      <c r="BF26">
+        <v>3</v>
+      </c>
+      <c r="BG26">
+        <v>3</v>
+      </c>
+      <c r="BH26">
+        <v>5</v>
+      </c>
+      <c r="BI26">
+        <v>8</v>
+      </c>
+      <c r="BJ26">
+        <v>8</v>
+      </c>
+      <c r="BK26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6617782</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>2.88</v>
+      </c>
+      <c r="U27">
+        <v>2.38</v>
+      </c>
+      <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.28</v>
+      </c>
+      <c r="X27">
+        <v>3.48</v>
+      </c>
+      <c r="Y27">
+        <v>2.32</v>
+      </c>
+      <c r="Z27">
+        <v>1.57</v>
+      </c>
+      <c r="AA27">
+        <v>5.25</v>
+      </c>
+      <c r="AB27">
+        <v>1.14</v>
+      </c>
+      <c r="AC27">
+        <v>2.18</v>
+      </c>
+      <c r="AD27">
+        <v>3.55</v>
+      </c>
+      <c r="AE27">
+        <v>2.71</v>
+      </c>
+      <c r="AF27">
+        <v>1.02</v>
+      </c>
+      <c r="AG27">
+        <v>16</v>
+      </c>
+      <c r="AH27">
+        <v>1.15</v>
+      </c>
+      <c r="AI27">
+        <v>4.55</v>
+      </c>
+      <c r="AJ27">
+        <v>1.55</v>
+      </c>
+      <c r="AK27">
+        <v>2.3</v>
+      </c>
+      <c r="AL27">
+        <v>1.49</v>
+      </c>
+      <c r="AM27">
+        <v>2.44</v>
+      </c>
+      <c r="AN27">
+        <v>1.39</v>
+      </c>
+      <c r="AO27">
+        <v>1.25</v>
+      </c>
+      <c r="AP27">
+        <v>1.6</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>3</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1.19</v>
+      </c>
+      <c r="AV27">
+        <v>2.25</v>
+      </c>
+      <c r="AW27">
+        <v>3.44</v>
+      </c>
+      <c r="AX27">
+        <v>1.59</v>
+      </c>
+      <c r="AY27">
+        <v>9.4</v>
+      </c>
+      <c r="AZ27">
+        <v>2.7</v>
+      </c>
+      <c r="BA27">
+        <v>1.17</v>
+      </c>
+      <c r="BB27">
+        <v>1.3</v>
+      </c>
+      <c r="BC27">
+        <v>1.56</v>
+      </c>
+      <c r="BD27">
+        <v>1.98</v>
+      </c>
+      <c r="BE27">
+        <v>2.55</v>
+      </c>
+      <c r="BF27">
+        <v>7</v>
+      </c>
+      <c r="BG27">
+        <v>8</v>
+      </c>
+      <c r="BH27">
+        <v>5</v>
+      </c>
+      <c r="BI27">
+        <v>7</v>
+      </c>
+      <c r="BJ27">
+        <v>12</v>
+      </c>
+      <c r="BK27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6617783</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45171.625</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>13</v>
+      </c>
+      <c r="T28">
+        <v>3.75</v>
+      </c>
+      <c r="U28">
+        <v>2.38</v>
+      </c>
+      <c r="V28">
+        <v>2.5</v>
+      </c>
+      <c r="W28">
+        <v>1.28</v>
+      </c>
+      <c r="X28">
+        <v>3.48</v>
+      </c>
+      <c r="Y28">
+        <v>2.32</v>
+      </c>
+      <c r="Z28">
+        <v>1.57</v>
+      </c>
+      <c r="AA28">
+        <v>5.25</v>
+      </c>
+      <c r="AB28">
+        <v>1.14</v>
+      </c>
+      <c r="AC28">
+        <v>3.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.8</v>
+      </c>
+      <c r="AE28">
+        <v>1.92</v>
+      </c>
+      <c r="AF28">
+        <v>1.02</v>
+      </c>
+      <c r="AG28">
+        <v>16</v>
+      </c>
+      <c r="AH28">
+        <v>1.15</v>
+      </c>
+      <c r="AI28">
+        <v>4.55</v>
+      </c>
+      <c r="AJ28">
+        <v>1.67</v>
+      </c>
+      <c r="AK28">
+        <v>2.1</v>
+      </c>
+      <c r="AL28">
+        <v>1.52</v>
+      </c>
+      <c r="AM28">
+        <v>2.36</v>
+      </c>
+      <c r="AN28">
+        <v>1.83</v>
+      </c>
+      <c r="AO28">
+        <v>1.24</v>
+      </c>
+      <c r="AP28">
+        <v>1.27</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>0.5</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>0.73</v>
+      </c>
+      <c r="AV28">
+        <v>0.96</v>
+      </c>
+      <c r="AW28">
+        <v>1.69</v>
+      </c>
+      <c r="AX28">
+        <v>1.96</v>
+      </c>
+      <c r="AY28">
+        <v>8.9</v>
+      </c>
+      <c r="AZ28">
+        <v>2.07</v>
+      </c>
+      <c r="BA28">
+        <v>1.2</v>
+      </c>
+      <c r="BB28">
+        <v>1.37</v>
+      </c>
+      <c r="BC28">
+        <v>1.66</v>
+      </c>
+      <c r="BD28">
+        <v>2.1</v>
+      </c>
+      <c r="BE28">
+        <v>2.8</v>
+      </c>
+      <c r="BF28">
+        <v>8</v>
+      </c>
+      <c r="BG28">
+        <v>5</v>
+      </c>
+      <c r="BH28">
+        <v>9</v>
+      </c>
+      <c r="BI28">
+        <v>2</v>
+      </c>
+      <c r="BJ28">
+        <v>17</v>
+      </c>
+      <c r="BK28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6617784</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45171.625</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>2.4</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>3.75</v>
+      </c>
+      <c r="W29">
+        <v>1.26</v>
+      </c>
+      <c r="X29">
+        <v>3.64</v>
+      </c>
+      <c r="Y29">
+        <v>2.2</v>
+      </c>
+      <c r="Z29">
+        <v>1.63</v>
+      </c>
+      <c r="AA29">
+        <v>4.9</v>
+      </c>
+      <c r="AB29">
+        <v>1.16</v>
+      </c>
+      <c r="AC29">
+        <v>1.91</v>
+      </c>
+      <c r="AD29">
+        <v>3.86</v>
+      </c>
+      <c r="AE29">
+        <v>3.48</v>
+      </c>
+      <c r="AF29">
+        <v>1.02</v>
+      </c>
+      <c r="AG29">
+        <v>20.5</v>
+      </c>
+      <c r="AH29">
+        <v>1.13</v>
+      </c>
+      <c r="AI29">
+        <v>4.9</v>
+      </c>
+      <c r="AJ29">
+        <v>1.45</v>
+      </c>
+      <c r="AK29">
+        <v>2.55</v>
+      </c>
+      <c r="AL29">
+        <v>1.47</v>
+      </c>
+      <c r="AM29">
+        <v>2.49</v>
+      </c>
+      <c r="AN29">
+        <v>1.28</v>
+      </c>
+      <c r="AO29">
+        <v>1.23</v>
+      </c>
+      <c r="AP29">
+        <v>1.84</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>3</v>
+      </c>
+      <c r="AS29">
+        <v>1.5</v>
+      </c>
+      <c r="AT29">
+        <v>1.5</v>
+      </c>
+      <c r="AU29">
+        <v>2.68</v>
+      </c>
+      <c r="AV29">
+        <v>1.35</v>
+      </c>
+      <c r="AW29">
+        <v>4.03</v>
+      </c>
+      <c r="AX29">
+        <v>1.46</v>
+      </c>
+      <c r="AY29">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ29">
+        <v>3.15</v>
+      </c>
+      <c r="BA29">
+        <v>1.21</v>
+      </c>
+      <c r="BB29">
+        <v>1.38</v>
+      </c>
+      <c r="BC29">
+        <v>1.68</v>
+      </c>
+      <c r="BD29">
+        <v>2.14</v>
+      </c>
+      <c r="BE29">
+        <v>2.88</v>
+      </c>
+      <c r="BF29">
+        <v>6</v>
+      </c>
+      <c r="BG29">
+        <v>5</v>
+      </c>
+      <c r="BH29">
+        <v>7</v>
+      </c>
+      <c r="BI29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>13</v>
+      </c>
+      <c r="BK29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6617785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45172.35416666666</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>2.82</v>
+      </c>
+      <c r="U30">
+        <v>2.32</v>
+      </c>
+      <c r="V30">
+        <v>3.14</v>
+      </c>
+      <c r="W30">
+        <v>1.28</v>
+      </c>
+      <c r="X30">
+        <v>3.48</v>
+      </c>
+      <c r="Y30">
+        <v>2.31</v>
+      </c>
+      <c r="Z30">
+        <v>1.57</v>
+      </c>
+      <c r="AA30">
+        <v>5.25</v>
+      </c>
+      <c r="AB30">
+        <v>1.14</v>
+      </c>
+      <c r="AC30">
+        <v>2.44</v>
+      </c>
+      <c r="AD30">
+        <v>3.3</v>
+      </c>
+      <c r="AE30">
+        <v>2.46</v>
+      </c>
+      <c r="AF30">
+        <v>1.03</v>
+      </c>
+      <c r="AG30">
+        <v>18.25</v>
+      </c>
+      <c r="AH30">
+        <v>1.18</v>
+      </c>
+      <c r="AI30">
+        <v>4.7</v>
+      </c>
+      <c r="AJ30">
+        <v>1.57</v>
+      </c>
+      <c r="AK30">
+        <v>2.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.48</v>
+      </c>
+      <c r="AM30">
+        <v>2.46</v>
+      </c>
+      <c r="AN30">
+        <v>1.5</v>
+      </c>
+      <c r="AO30">
+        <v>1.27</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
+        <v>1.5</v>
+      </c>
+      <c r="AT30">
+        <v>3</v>
+      </c>
+      <c r="AU30">
+        <v>1.24</v>
+      </c>
+      <c r="AV30">
+        <v>1.47</v>
+      </c>
+      <c r="AW30">
+        <v>2.71</v>
+      </c>
+      <c r="AX30">
+        <v>1.8</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>2.5</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>1.26</v>
+      </c>
+      <c r="BC30">
+        <v>1.48</v>
+      </c>
+      <c r="BD30">
+        <v>1.83</v>
+      </c>
+      <c r="BE30">
+        <v>2.3</v>
+      </c>
+      <c r="BF30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
+        <v>10</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>6</v>
+      </c>
+      <c r="BJ30">
+        <v>6</v>
+      </c>
+      <c r="BK30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6617786</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>2.4</v>
+      </c>
+      <c r="U31">
+        <v>2.5</v>
+      </c>
+      <c r="V31">
+        <v>3.75</v>
+      </c>
+      <c r="W31">
+        <v>1.26</v>
+      </c>
+      <c r="X31">
+        <v>3.64</v>
+      </c>
+      <c r="Y31">
+        <v>2.2</v>
+      </c>
+      <c r="Z31">
+        <v>1.63</v>
+      </c>
+      <c r="AA31">
+        <v>4.9</v>
+      </c>
+      <c r="AB31">
+        <v>1.16</v>
+      </c>
+      <c r="AC31">
+        <v>2.5</v>
+      </c>
+      <c r="AD31">
+        <v>3.4</v>
+      </c>
+      <c r="AE31">
+        <v>2.4</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>20.5</v>
+      </c>
+      <c r="AH31">
+        <v>1.13</v>
+      </c>
+      <c r="AI31">
+        <v>4.9</v>
+      </c>
+      <c r="AJ31">
+        <v>1.59</v>
+      </c>
+      <c r="AK31">
+        <v>2.12</v>
+      </c>
+      <c r="AL31">
+        <v>1.47</v>
+      </c>
+      <c r="AM31">
+        <v>2.49</v>
+      </c>
+      <c r="AN31">
+        <v>1.28</v>
+      </c>
+      <c r="AO31">
+        <v>1.23</v>
+      </c>
+      <c r="AP31">
+        <v>1.84</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>2</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+      <c r="AU31">
+        <v>2.1</v>
+      </c>
+      <c r="AV31">
+        <v>1.62</v>
+      </c>
+      <c r="AW31">
+        <v>3.72</v>
+      </c>
+      <c r="AX31">
+        <v>1.87</v>
+      </c>
+      <c r="AY31">
+        <v>6.8</v>
+      </c>
+      <c r="AZ31">
+        <v>2.39</v>
+      </c>
+      <c r="BA31">
+        <v>1.33</v>
+      </c>
+      <c r="BB31">
+        <v>1.61</v>
+      </c>
+      <c r="BC31">
+        <v>2.05</v>
+      </c>
+      <c r="BD31">
+        <v>2.75</v>
+      </c>
+      <c r="BE31">
+        <v>3.85</v>
+      </c>
+      <c r="BF31">
+        <v>4</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>3</v>
+      </c>
+      <c r="BI31">
+        <v>4</v>
+      </c>
+      <c r="BJ31">
+        <v>7</v>
+      </c>
+      <c r="BK31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>['66', '90+2']</t>
+  </si>
+  <si>
+    <t>['6', '90+1']</t>
   </si>
   <si>
     <t>['66', '82', '90+6']</t>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1003,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1382,7 +1385,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1764,7 +1767,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2146,7 +2149,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2337,7 +2340,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>23</v>
@@ -2528,7 +2531,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2910,7 +2913,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3292,7 +3295,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3379,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3483,7 +3486,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3674,7 +3677,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -3865,7 +3868,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4056,7 +4059,7 @@
         <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4247,7 +4250,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4438,7 +4441,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4820,7 +4823,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5393,7 +5396,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5584,7 +5587,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5775,7 +5778,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5966,7 +5969,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6092,22 +6095,22 @@
         <v>2.8</v>
       </c>
       <c r="BF28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI28">
         <v>2</v>
       </c>
       <c r="BJ28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BK28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:63">
@@ -6157,7 +6160,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6283,19 +6286,19 @@
         <v>2.88</v>
       </c>
       <c r="BF29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG29">
         <v>5</v>
       </c>
       <c r="BH29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI29">
         <v>5</v>
       </c>
       <c r="BJ29">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK29">
         <v>10</v>
@@ -6348,7 +6351,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6474,22 +6477,22 @@
         <v>2.3</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG30">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BH30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BI30">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BJ30">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BK30">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6539,16 +6542,16 @@
         <v>107</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T31">
         <v>2.4</v>
@@ -6665,22 +6668,213 @@
         <v>3.85</v>
       </c>
       <c r="BF31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ31">
         <v>7</v>
       </c>
       <c r="BK31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6617787</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45172.625</v>
+      </c>
+      <c r="F32">
         <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>1.68</v>
+      </c>
+      <c r="U32">
+        <v>2.89</v>
+      </c>
+      <c r="V32">
+        <v>7.68</v>
+      </c>
+      <c r="W32">
+        <v>1.23</v>
+      </c>
+      <c r="X32">
+        <v>3.75</v>
+      </c>
+      <c r="Y32">
+        <v>2.17</v>
+      </c>
+      <c r="Z32">
+        <v>1.67</v>
+      </c>
+      <c r="AA32">
+        <v>4.3</v>
+      </c>
+      <c r="AB32">
+        <v>1.18</v>
+      </c>
+      <c r="AC32">
+        <v>1.15</v>
+      </c>
+      <c r="AD32">
+        <v>5.66</v>
+      </c>
+      <c r="AE32">
+        <v>11.7</v>
+      </c>
+      <c r="AF32">
+        <v>1.01</v>
+      </c>
+      <c r="AG32">
+        <v>25.5</v>
+      </c>
+      <c r="AH32">
+        <v>1.13</v>
+      </c>
+      <c r="AI32">
+        <v>5.65</v>
+      </c>
+      <c r="AJ32">
+        <v>1.4</v>
+      </c>
+      <c r="AK32">
+        <v>2.75</v>
+      </c>
+      <c r="AL32">
+        <v>1.83</v>
+      </c>
+      <c r="AM32">
+        <v>1.93</v>
+      </c>
+      <c r="AN32">
+        <v>1.09</v>
+      </c>
+      <c r="AO32">
+        <v>1.13</v>
+      </c>
+      <c r="AP32">
+        <v>3.4</v>
+      </c>
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>1.28</v>
+      </c>
+      <c r="AV32">
+        <v>1.27</v>
+      </c>
+      <c r="AW32">
+        <v>2.55</v>
+      </c>
+      <c r="AX32">
+        <v>1.3</v>
+      </c>
+      <c r="AY32">
+        <v>9</v>
+      </c>
+      <c r="AZ32">
+        <v>4.5</v>
+      </c>
+      <c r="BA32">
+        <v>1.23</v>
+      </c>
+      <c r="BB32">
+        <v>1.35</v>
+      </c>
+      <c r="BC32">
+        <v>1.62</v>
+      </c>
+      <c r="BD32">
+        <v>2.04</v>
+      </c>
+      <c r="BE32">
+        <v>2.64</v>
+      </c>
+      <c r="BF32">
+        <v>14</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>17</v>
+      </c>
+      <c r="BI32">
+        <v>7</v>
+      </c>
+      <c r="BJ32">
+        <v>31</v>
+      </c>
+      <c r="BK32">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0.77</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.84</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>0.77</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -6181,7 +6181,7 @@
         <v>0.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>0.73</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.24</v>
@@ -7235,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="BG33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH33" t="n">
         <v>5</v>
@@ -7247,7 +7247,7 @@
         <v>10</v>
       </c>
       <c r="BK33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -7435,22 +7435,22 @@
         <v>2.23</v>
       </c>
       <c r="BF34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG34" t="n">
         <v>5</v>
       </c>
       <c r="BH34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ34" t="n">
         <v>17</v>
       </c>
       <c r="BK34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -7641,19 +7641,1034 @@
         <v>6</v>
       </c>
       <c r="BG35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6617791</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45185.625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['28', '57', '85']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG36" t="n">
         <v>6</v>
       </c>
-      <c r="BH35" t="n">
+      <c r="BH36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI36" t="n">
         <v>6</v>
       </c>
-      <c r="BI35" t="n">
+      <c r="BJ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6617792</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45185.625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
         <v>8</v>
       </c>
-      <c r="BJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK35" t="n">
+      <c r="T37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6617793</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45186.35416666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>13</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
         <v>14</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6617794</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45186.45833333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Francs Borains</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['43', '87']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6617795</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45186.59375</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT20" t="n">
         <v>0.33</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0.87</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU25" t="n">
         <v>2.98</v>
@@ -8669,6 +8669,615 @@
       </c>
       <c r="BK40" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6617797</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45191.625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Zulte-Waregem</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['70', '76']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6617803</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45191.625</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Patro Eisden</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6617802</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>RFC Seraing</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Belgium First Division B_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.42</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.19</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0.67</v>
@@ -6384,7 +6384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>2.68</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
@@ -8856,19 +8856,19 @@
         <v>2.42</v>
       </c>
       <c r="BF41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG41" t="n">
         <v>5</v>
       </c>
       <c r="BH41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI41" t="n">
         <v>7</v>
       </c>
       <c r="BJ41" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK41" t="n">
         <v>12</v>
@@ -9062,19 +9062,19 @@
         <v>3</v>
       </c>
       <c r="BG42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH42" t="n">
         <v>5</v>
       </c>
       <c r="BI42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ42" t="n">
         <v>8</v>
       </c>
       <c r="BK42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -9262,22 +9262,1037 @@
         <v>3</v>
       </c>
       <c r="BF43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH43" t="n">
         <v>5</v>
       </c>
       <c r="BI43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK43" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6617798</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['46', '55', '59', '79']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>11</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6617801</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>KV Oostende</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['19', '50']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['28', '80']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>7</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>11</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6617800</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45193.35416666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Francs Borains</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['12', '73', '85']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6617796</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RFC Liege</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['26', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>11</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6617799</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.59375</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['21', '66', '76']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
